--- a/DanhsachCanho.xlsx
+++ b/DanhsachCanho.xlsx
@@ -9901,11 +9901,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9919,20 +9931,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10461,7 +10461,7 @@
   <dimension ref="A1:AK824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="X808" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="X742" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="X3" sqref="X3:X820"/>
@@ -76146,38 +76146,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103" t="s">
         <v>1521</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
       <c r="K1" s="12">
         <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>1522</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="9.75" customHeight="1">
       <c r="A4" s="13"/>
@@ -76187,14 +76187,14 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="105" t="s">
         <v>1536</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="5.25" customHeight="1">
       <c r="A6" s="16" t="s">
@@ -76202,18 +76202,18 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="106" t="s">
         <v>2517</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="5.25" customHeight="1">
       <c r="A8" s="17"/>
@@ -76233,10 +76233,10 @@
       <c r="A10" s="17" t="s">
         <v>1623</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="101" t="s">
         <v>1617</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="19">
         <f>VLOOKUP($K$1,'Tính thành tiền HH2A'!A2:W820,2)</f>
         <v>3328</v>
@@ -76260,10 +76260,10 @@
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="101" t="s">
         <v>1619</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="18" t="str">
         <f>VLOOKUP($K$1,'Tính thành tiền HH2A'!A2:W820,23)</f>
         <v>0912868238</v>
@@ -76273,39 +76273,39 @@
       <c r="A13" s="17"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="98" t="s">
         <v>2514</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="98" t="s">
         <v>1987</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="98" t="s">
         <v>1986</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="21" t="str">
         <f>VLOOKUP(K1,'Tính thành tiền HH2A'!A2:W820,17)&amp;"."</f>
         <v>Trịnh Nhân Đạo.</v>
@@ -76317,18 +76317,18 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="98" t="s">
         <v>2668</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A18" s="22" t="s">
@@ -76373,18 +76373,18 @@
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:10" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>1538</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A23" s="27" t="s">
@@ -76459,33 +76459,33 @@
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A29" s="104" t="str">
+      <c r="A29" s="99" t="str">
         <f>" Lý do: Tr¶ tiÒn mua c¨n hé chung c­ "&amp;VLOOKUP($K$1,'Tính thành tiền HH2A'!A2:W820,2)&amp;" nhµ HH2A khu dÞch vô tæng hîp vµ nhµ ë hå Linh §µm, ph­êng Hoµng LiÖt, quËn Hoµng Mai, thµnh phè Hµ Néi."</f>
         <v xml:space="preserve"> Lý do: Tr¶ tiÒn mua c¨n hé chung c­ 3328 nhµ HH2A khu dÞch vô tæng hîp vµ nhµ ë hå Linh §µm, ph­êng Hoµng LiÖt, quËn Hoµng Mai, thµnh phè Hµ Néi.</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="98" t="s">
         <v>3049</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
     </row>
     <row r="31" spans="1:10" ht="10.5" customHeight="1">
       <c r="A31" s="29"/>
@@ -76502,22 +76502,22 @@
     <row r="32" spans="1:10" ht="21" customHeight="1">
       <c r="A32" s="30"/>
       <c r="F32" s="80"/>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1">
       <c r="A33" s="31"/>
       <c r="F33" s="81"/>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="32"/>
@@ -76558,22 +76558,15 @@
     </row>
     <row r="39" spans="1:10" ht="16.5">
       <c r="F39" s="82"/>
-      <c r="G39" s="102" t="s">
+      <c r="G39" s="96" t="s">
         <v>3050</v>
       </c>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J15"/>
@@ -76587,6 +76580,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.3" top="0.47" bottom="0.24" header="0.23" footer="0.17"/>
